--- a/로스트아크 - 비브린 큐브 기획서/txt_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/txt_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B7F287-20D5-402A-B266-D4E3396590C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D70D91-6AC8-4EC3-9DFB-1EEB18264635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>font_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>조율의 서를 사용하는 PVP 콘텐츠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>A mysterious cube that recreates the past.\nAdventurers want to recreate each other's powerful enemies that they have defeated in the past and use them as training purposes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,23 +552,24 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="37.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="37.3984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -574,114 +578,144 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>104351</v>
       </c>
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>104352</v>
       </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>104353</v>
       </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104354</v>
       </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>104355</v>
       </c>
+      <c r="B7" s="3">
+        <v>12</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>104356</v>
       </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>104357</v>
       </c>
+      <c r="B9" s="3">
+        <v>12</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>104358</v>
       </c>
+      <c r="B10" s="3">
+        <v>12</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>104359</v>
       </c>
+      <c r="B11" s="3">
+        <v>12</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>104360</v>
       </c>
+      <c r="B12" s="3">
+        <v>12</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크 - 비브린 큐브 기획서/txt_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/txt_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D70D91-6AC8-4EC3-9DFB-1EEB18264635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B1CF6-59D8-4FD5-B2EF-00DC31C70D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,19 +552,19 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="37.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>104351</v>
       </c>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>104352</v>
       </c>
@@ -606,7 +606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>104353</v>
       </c>
@@ -620,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>104354</v>
       </c>
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>104355</v>
       </c>
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>104356</v>
       </c>
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>104357</v>
       </c>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>104358</v>
       </c>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>104359</v>
       </c>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>104360</v>
       </c>
